--- a/_documents/프로그램 목록(KPC-SCC-D01).xlsx
+++ b/_documents/프로그램 목록(KPC-SCC-D01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="7" r:id="rId1"/>
@@ -90,6 +90,7 @@
     <definedName name="테스트단계1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
   <si>
     <t>최초 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,10 +135,6 @@
   </si>
   <si>
     <t>제·개 정 이 력</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>KepcoA 스프린터 프로젝트 1조</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -225,487 +222,451 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SCCUP000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application.properties</t>
+  </si>
+  <si>
+    <t>pom.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banner.js</t>
+  </si>
+  <si>
+    <t>Banner.css</t>
+  </si>
+  <si>
+    <t>Header.js</t>
+  </si>
+  <si>
+    <t>Footer.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App.css</t>
+  </si>
+  <si>
+    <t>Footer.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu.js</t>
+  </si>
+  <si>
+    <t>Menu.css</t>
+  </si>
+  <si>
+    <t>Ranking.js</t>
+  </si>
+  <si>
+    <t>SCCUP100000</t>
+  </si>
+  <si>
+    <t>메뉴 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 업체 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전소 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기차량목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전수칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조금 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP300000</t>
+  </si>
+  <si>
+    <t>SCCUP400000</t>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductList.js</t>
+  </si>
+  <si>
+    <t>ProductList.css</t>
+  </si>
+  <si>
+    <t>ProductController.java</t>
+  </si>
+  <si>
+    <t>Vehicle.java</t>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VehicleRepository.java</t>
+  </si>
+  <si>
+    <t>Repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SilverCarCommunityApplication.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store.css</t>
+  </si>
+  <si>
+    <t>StoreRepository.java</t>
+  </si>
+  <si>
+    <t>Repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeController.java</t>
+  </si>
+  <si>
+    <t>Station.js</t>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station.css</t>
+  </si>
+  <si>
+    <t>StationRepository.java</t>
+  </si>
+  <si>
+    <t>Store.java</t>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station.java</t>
+  </si>
+  <si>
+    <t>stationController.java</t>
+  </si>
+  <si>
+    <t>계정 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP600000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterController.java</t>
+  </si>
+  <si>
+    <t>Account.java</t>
+  </si>
+  <si>
+    <t>AccountRepository.java</t>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeCenter.js</t>
+  </si>
+  <si>
+    <t>Layout.js</t>
+  </si>
+  <si>
+    <t>Ranking.css</t>
+  </si>
+  <si>
+    <t>Register.css</t>
+  </si>
+  <si>
+    <t>Layout.css</t>
+  </si>
+  <si>
+    <t>SaleCompany.js</t>
+  </si>
+  <si>
+    <t>showRegister.js</t>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강다솜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login.css</t>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search.js</t>
+  </si>
+  <si>
+    <t>SearchCarDetail.js</t>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search.css</t>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicleController.java</t>
+  </si>
+  <si>
+    <t>Cotroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsidy.css</t>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsidy.js</t>
+  </si>
+  <si>
+    <t>김건우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scc_create.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scc_insert.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreePosting.js</t>
+  </si>
+  <si>
+    <t>reportWebVitals.js</t>
+  </si>
+  <si>
+    <t>AttachementRepository.java</t>
+  </si>
+  <si>
+    <t>CommentRepository.java</t>
+  </si>
+  <si>
+    <t>PostingRepository.java</t>
+  </si>
+  <si>
+    <t>ReviewRepository.java</t>
+  </si>
+  <si>
+    <t>Attachement.java</t>
+  </si>
+  <si>
+    <t>Comment.java</t>
+  </si>
+  <si>
+    <t>Posting.java</t>
+  </si>
+  <si>
+    <t>Review.java</t>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KepcoA 스프린트 프로젝트 1조</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>PGM-SCC-P01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCCUP000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application.properties</t>
-  </si>
-  <si>
-    <t>pom.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banner.js</t>
-  </si>
-  <si>
-    <t>Banner.css</t>
-  </si>
-  <si>
-    <t>Header.js</t>
-  </si>
-  <si>
-    <t>Footer.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App.css</t>
-  </si>
-  <si>
-    <t>Footer.css</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu.js</t>
-  </si>
-  <si>
-    <t>Menu.css</t>
-  </si>
-  <si>
-    <t>Ranking.js</t>
-  </si>
-  <si>
-    <t>SCCUP100000</t>
-  </si>
-  <si>
     <t>SCCUP200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP110000</t>
-  </si>
-  <si>
-    <t>메뉴 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP130000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP120000</t>
-  </si>
-  <si>
-    <t>판매 업체 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전소 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP130000</t>
-  </si>
-  <si>
-    <t>자유게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SCCUP140000</t>
-  </si>
-  <si>
-    <t>차량 검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기차량목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전수칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조금 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP500000</t>
-  </si>
-  <si>
-    <t>SCCUP300000</t>
-  </si>
-  <si>
-    <t>SCCUP400000</t>
-  </si>
-  <si>
-    <t>화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductList.js</t>
-  </si>
-  <si>
-    <t>ProductList.css</t>
-  </si>
-  <si>
-    <t>ProductController.java</t>
-  </si>
-  <si>
-    <t>Vehicle.java</t>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-1.jpg</t>
-  </si>
-  <si>
-    <t>D301S.jpg</t>
-  </si>
-  <si>
-    <t>DP201S.jpg</t>
-  </si>
-  <si>
-    <t>KING.jpg</t>
-  </si>
-  <si>
-    <t>PF2K.jpg</t>
-  </si>
-  <si>
-    <t>PF6.jpg</t>
-  </si>
-  <si>
-    <t>S17.jpg</t>
-  </si>
-  <si>
-    <t>S-450.jpg</t>
-  </si>
-  <si>
-    <t>S-600.jpg</t>
-  </si>
-  <si>
-    <t>S-3500.jpg</t>
-  </si>
-  <si>
-    <t>SC-1.jpg</t>
-  </si>
-  <si>
-    <t>YL500 캐노피&amp;방풍커튼.jpg</t>
-  </si>
-  <si>
-    <t>YL500 캐노피형.jpg</t>
-  </si>
-  <si>
-    <t>YL500s.jpg</t>
-  </si>
-  <si>
-    <t>YL실버플러스 캐노피&amp;방풍커튼.jpg</t>
-  </si>
-  <si>
-    <t>YL실버플러스 캐노피형.jpg</t>
-  </si>
-  <si>
-    <t>YL실퍼플러스.jpg</t>
-  </si>
-  <si>
-    <t>나드리100.jpg</t>
-  </si>
-  <si>
-    <t>나드리110.jpg</t>
-  </si>
-  <si>
-    <t>나드리200.jpg</t>
-  </si>
-  <si>
-    <t>나드리210.jpg</t>
-  </si>
-  <si>
-    <t>나드리500.jpg</t>
-  </si>
-  <si>
-    <t>루이.jpg</t>
-  </si>
-  <si>
-    <t>베가 A330.jpg</t>
-  </si>
-  <si>
-    <t>베가 T510.jpg</t>
-  </si>
-  <si>
-    <t>베가 T510R.jpg</t>
-  </si>
-  <si>
-    <t>베가 T530.jpg</t>
-  </si>
-  <si>
-    <t>베가 T530R.jpg</t>
-  </si>
-  <si>
-    <t>베가 T570.jpg</t>
-  </si>
-  <si>
-    <t>베가 T570R.jpg</t>
-  </si>
-  <si>
-    <t>베가 T5100.jpg</t>
-  </si>
-  <si>
-    <t>베가 T5100R.jpg</t>
-  </si>
-  <si>
-    <t>베가 T5500.jpg</t>
-  </si>
-  <si>
-    <t>베가 T5500R.jpg</t>
-  </si>
-  <si>
-    <t>씽씽전동삼륜차 500.jpg</t>
-  </si>
-  <si>
-    <t>씽씽전동삼륜차 600.jpg</t>
-  </si>
-  <si>
-    <t>아미고-S.jpg</t>
-  </si>
-  <si>
-    <t>알파-S.jpg</t>
-  </si>
-  <si>
-    <t>에코로 X3.jpg</t>
-  </si>
-  <si>
-    <t>에코로 X5.jpg</t>
-  </si>
-  <si>
-    <t>에코로 XD.jpg</t>
-  </si>
-  <si>
-    <t>에코로 골든체어.jpg</t>
-  </si>
-  <si>
-    <t>전동전기삼륜차 SR7.jpg</t>
-  </si>
-  <si>
-    <t>전동전기삼륜차 SR7 캐노피.jpg</t>
-  </si>
-  <si>
-    <t>전동전기삼륜차 SR8.jpg</t>
-  </si>
-  <si>
-    <t>전동전기삼륜차 SR8 캐노피.jpg</t>
-  </si>
-  <si>
-    <t>칸타타300.jpg</t>
-  </si>
-  <si>
-    <t>프리고-S(옵션).jpg</t>
-  </si>
-  <si>
-    <t>Img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VehicleRepository.java</t>
-  </si>
-  <si>
-    <t>Repository</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SilverCarCommunityApplication.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store.js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store.css</t>
-  </si>
-  <si>
-    <t>StoreRepository.java</t>
-  </si>
-  <si>
-    <t>Repository</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeController.java</t>
-  </si>
-  <si>
-    <t>Station.js</t>
-  </si>
-  <si>
-    <t>Component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station.css</t>
-  </si>
-  <si>
-    <t>StationRepository.java</t>
-  </si>
-  <si>
-    <t>Store.java</t>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Station.java</t>
-  </si>
-  <si>
-    <t>stationController.java</t>
-  </si>
-  <si>
-    <t>계정 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP600000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegisterController.java</t>
-  </si>
-  <si>
-    <t>banner_safe1.jpg</t>
-  </si>
-  <si>
-    <t>banner_safe2.jpg</t>
-  </si>
-  <si>
-    <t>banner_safe3.jpg</t>
-  </si>
-  <si>
-    <t>banner_safe4.jpg</t>
-  </si>
-  <si>
-    <t>banner_safe5.jpg</t>
-  </si>
-  <si>
-    <t>silvermotion.png</t>
-  </si>
-  <si>
-    <t>Account.java</t>
-  </si>
-  <si>
-    <t>AccountRepository.java</t>
-  </si>
-  <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register.js</t>
-  </si>
-  <si>
-    <t>ChargeCenter.js</t>
-  </si>
-  <si>
-    <t>Layout.js</t>
-  </si>
-  <si>
-    <t>Ranking.css</t>
-  </si>
-  <si>
-    <t>Register.css</t>
-  </si>
-  <si>
-    <t>Layout.css</t>
-  </si>
-  <si>
-    <t>SaleCompany.js</t>
-  </si>
-  <si>
-    <t>showRegister.js</t>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김건우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김건우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강다솜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조정아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,12 +885,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4D5156"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1265,7 +1220,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1446,78 +1401,75 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="15" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="15" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1666,7 +1618,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="25399" y="16935"/>
-          <a:ext cx="14377459" cy="765704"/>
+          <a:ext cx="14581073" cy="760527"/>
           <a:chOff x="136071" y="136071"/>
           <a:chExt cx="11112954" cy="530680"/>
         </a:xfrm>
@@ -1826,7 +1778,25 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>스프린터 프로젝트 </a:t>
+              <a:t>스프린</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1050">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>트</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1050">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> 프로젝트 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" sz="1050">
@@ -4212,12 +4182,12 @@
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="59"/>
+        <v>10</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="60"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
@@ -4327,79 +4297,79 @@
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
+      <c r="B11" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
       <c r="A13" s="38"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1">
       <c r="A14" s="38"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="38"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1">
@@ -4498,11 +4468,11 @@
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="63">
+      <c r="F22" s="64">
         <v>45274</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
@@ -4515,9 +4485,9 @@
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
@@ -4639,7 +4609,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F16" sqref="F16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -4671,7 +4641,7 @@
     <row r="2" spans="1:13" ht="21" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="24" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="12"/>
@@ -4681,11 +4651,11 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="65" t="str">
+      <c r="K2" s="69" t="str">
         <f>표지!B11</f>
         <v>프로그램 목록</v>
       </c>
-      <c r="L2" s="65"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="31.5">
@@ -4705,19 +4675,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
@@ -4743,17 +4713,17 @@
       <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4770,22 +4740,22 @@
       <c r="C7" s="16">
         <v>45274</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="10"/>
     </row>
@@ -4793,13 +4763,13 @@
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="69"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="10"/>
@@ -4808,13 +4778,13 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="69"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="10"/>
@@ -4823,13 +4793,13 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="69"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="10"/>
@@ -4838,13 +4808,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="69"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10"/>
@@ -4853,13 +4823,13 @@
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="69"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
@@ -4868,13 +4838,13 @@
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="69"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
@@ -4883,13 +4853,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="69"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
@@ -4898,13 +4868,13 @@
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="69"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
@@ -4913,13 +4883,13 @@
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="69"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
@@ -4928,13 +4898,13 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="69"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="10"/>
@@ -4943,13 +4913,13 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="69"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="10"/>
@@ -4958,13 +4928,13 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="69"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="10"/>
@@ -4973,13 +4943,13 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="69"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="10"/>
@@ -4988,13 +4958,13 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="69"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="10"/>
@@ -5003,13 +4973,13 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="69"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="10"/>
@@ -5018,13 +4988,13 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="69"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="10"/>
@@ -5033,13 +5003,13 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="69"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="10"/>
@@ -5121,6 +5091,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -5131,36 +5131,6 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5175,10 +5145,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:O107"/>
+  <dimension ref="A4:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12"/>
@@ -5191,7 +5161,7 @@
     <col min="6" max="6" width="12.5" style="44" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="46" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="44" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="44" customWidth="1"/>
     <col min="10" max="10" width="11" style="44" customWidth="1"/>
     <col min="11" max="11" width="10.875" style="44" customWidth="1"/>
     <col min="12" max="12" width="6.875" style="44" bestFit="1" customWidth="1"/>
@@ -5203,90 +5173,90 @@
   <sheetData>
     <row r="4" spans="1:15" ht="33" customHeight="1"/>
     <row r="5" spans="1:15" s="48" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="C5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="D5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="E5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="F5" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="G5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73" t="s">
+      <c r="K5" s="72"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73" t="s">
+      <c r="N5" s="72"/>
+      <c r="O5" s="75"/>
+    </row>
+    <row r="6" spans="1:15" s="48" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:15" s="48" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="57" t="s">
+      <c r="H6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="I6" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="J6" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="M6" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="57" t="s">
+      <c r="O6" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="58" t="s">
+    </row>
+    <row r="7" spans="1:15" ht="13.5">
+      <c r="A7" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="13.5">
-      <c r="A7" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="C7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="50" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F7" s="51"/>
       <c r="G7" s="52"/>
@@ -5300,12 +5270,12 @@
       <c r="O7" s="51"/>
     </row>
     <row r="8" spans="1:15" ht="13.5">
-      <c r="A8" s="81"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="51"/>
       <c r="G8" s="52"/>
@@ -5319,12 +5289,12 @@
       <c r="O8" s="51"/>
     </row>
     <row r="9" spans="1:15" ht="13.5">
-      <c r="A9" s="81"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="52"/>
@@ -5338,12 +5308,12 @@
       <c r="O9" s="51"/>
     </row>
     <row r="10" spans="1:15" ht="13.5">
-      <c r="A10" s="81"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="51"/>
       <c r="G10" s="52"/>
@@ -5357,15 +5327,15 @@
       <c r="O10" s="51"/>
     </row>
     <row r="11" spans="1:15" ht="13.5">
-      <c r="A11" s="81"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G11" s="52"/>
       <c r="H11" s="53"/>
@@ -5378,22 +5348,24 @@
       <c r="O11" s="51"/>
     </row>
     <row r="12" spans="1:15" ht="13.5">
-      <c r="A12" s="81"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G12" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H12" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H12" s="53">
+        <v>45272</v>
+      </c>
       <c r="I12" s="54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -5403,22 +5375,24 @@
       <c r="O12" s="51"/>
     </row>
     <row r="13" spans="1:15" ht="13.5">
-      <c r="A13" s="81"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="50" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="G13" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H13" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H13" s="53">
+        <v>45272</v>
+      </c>
       <c r="I13" s="54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
@@ -5428,22 +5402,24 @@
       <c r="O13" s="51"/>
     </row>
     <row r="14" spans="1:15" ht="13.5">
-      <c r="A14" s="81"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G14" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H14" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H14" s="53">
+        <v>45272</v>
+      </c>
       <c r="I14" s="54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
@@ -5453,22 +5429,24 @@
       <c r="O14" s="51"/>
     </row>
     <row r="15" spans="1:15" ht="13.5">
-      <c r="A15" s="81"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="G15" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H15" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H15" s="53">
+        <v>45272</v>
+      </c>
       <c r="I15" s="54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
@@ -5478,22 +5456,24 @@
       <c r="O15" s="51"/>
     </row>
     <row r="16" spans="1:15" ht="13.5">
-      <c r="A16" s="81"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G16" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H16" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H16" s="53">
+        <v>45272</v>
+      </c>
       <c r="I16" s="54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="J16" s="55"/>
       <c r="K16" s="55"/>
@@ -5503,22 +5483,24 @@
       <c r="O16" s="51"/>
     </row>
     <row r="17" spans="1:15" ht="13.5">
-      <c r="A17" s="81"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="G17" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H17" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H17" s="53">
+        <v>45272</v>
+      </c>
       <c r="I17" s="54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="J17" s="55"/>
       <c r="K17" s="55"/>
@@ -5528,15 +5510,15 @@
       <c r="O17" s="51"/>
     </row>
     <row r="18" spans="1:15" ht="13.5">
-      <c r="A18" s="81"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="50" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G18" s="52">
         <v>45271</v>
@@ -5545,7 +5527,7 @@
         <v>45271</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
@@ -5555,28 +5537,24 @@
       <c r="O18" s="51"/>
     </row>
     <row r="19" spans="1:15" ht="13.5">
-      <c r="A19" s="81"/>
-      <c r="B19" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>64</v>
-      </c>
+      <c r="A19" s="59"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="50" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="G19" s="52">
         <v>45271</v>
       </c>
-      <c r="H19" s="53"/>
+      <c r="H19" s="53">
+        <v>45271</v>
+      </c>
       <c r="I19" s="54" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="J19" s="55"/>
       <c r="K19" s="55"/>
@@ -5586,22 +5564,30 @@
       <c r="O19" s="51"/>
     </row>
     <row r="20" spans="1:15" ht="13.5">
-      <c r="A20" s="81"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E20" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="G20" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H20" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H20" s="53">
+        <v>45272</v>
+      </c>
       <c r="I20" s="54" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
@@ -5611,30 +5597,24 @@
       <c r="O20" s="51"/>
     </row>
     <row r="21" spans="1:15" ht="13.5">
-      <c r="A21" s="81"/>
-      <c r="B21" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>65</v>
-      </c>
+      <c r="A21" s="59"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="50" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G21" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H21" s="53">
         <v>45272</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
@@ -5644,24 +5624,30 @@
       <c r="O21" s="51"/>
     </row>
     <row r="22" spans="1:15" ht="13.5">
-      <c r="A22" s="81"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="50" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G22" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H22" s="53">
         <v>45272</v>
       </c>
       <c r="I22" s="54" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
@@ -5671,24 +5657,24 @@
       <c r="O22" s="51"/>
     </row>
     <row r="23" spans="1:15" ht="13.5">
-      <c r="A23" s="81"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
       <c r="E23" s="50" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G23" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H23" s="53">
         <v>45272</v>
       </c>
       <c r="I23" s="54" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
@@ -5698,24 +5684,24 @@
       <c r="O23" s="51"/>
     </row>
     <row r="24" spans="1:15" ht="13.5">
-      <c r="A24" s="81"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="50" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G24" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H24" s="53">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="J24" s="55"/>
       <c r="K24" s="55"/>
@@ -5725,24 +5711,24 @@
       <c r="O24" s="51"/>
     </row>
     <row r="25" spans="1:15" ht="13.5">
-      <c r="A25" s="81"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="G25" s="52">
         <v>45271</v>
       </c>
       <c r="H25" s="53">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
@@ -5752,22 +5738,24 @@
       <c r="O25" s="51"/>
     </row>
     <row r="26" spans="1:15" ht="13.5">
-      <c r="A26" s="81"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="G26" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H26" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H26" s="53">
+        <v>45272</v>
+      </c>
       <c r="I26" s="54" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="J26" s="55"/>
       <c r="K26" s="55"/>
@@ -5777,22 +5765,30 @@
       <c r="O26" s="51"/>
     </row>
     <row r="27" spans="1:15" ht="13.5">
-      <c r="A27" s="81"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E27" s="50" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G27" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H27" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H27" s="53">
+        <v>45272</v>
+      </c>
       <c r="I27" s="54" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
@@ -5802,22 +5798,24 @@
       <c r="O27" s="51"/>
     </row>
     <row r="28" spans="1:15" ht="13.5">
-      <c r="A28" s="81"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
       <c r="D28" s="49"/>
       <c r="E28" s="50" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G28" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H28" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H28" s="53">
+        <v>45272</v>
+      </c>
       <c r="I28" s="54" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="J28" s="55"/>
       <c r="K28" s="55"/>
@@ -5827,22 +5825,24 @@
       <c r="O28" s="51"/>
     </row>
     <row r="29" spans="1:15" ht="13.5">
-      <c r="A29" s="81"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="50" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="G29" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H29" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H29" s="53">
+        <v>45272</v>
+      </c>
       <c r="I29" s="54" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
@@ -5852,22 +5852,24 @@
       <c r="O29" s="51"/>
     </row>
     <row r="30" spans="1:15" ht="13.5">
-      <c r="A30" s="81"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="50" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="G30" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H30" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H30" s="53">
+        <v>45272</v>
+      </c>
       <c r="I30" s="54" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="J30" s="55"/>
       <c r="K30" s="55"/>
@@ -5877,22 +5879,24 @@
       <c r="O30" s="51"/>
     </row>
     <row r="31" spans="1:15" ht="13.5">
-      <c r="A31" s="81"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G31" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H31" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H31" s="53">
+        <v>45272</v>
+      </c>
       <c r="I31" s="54" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="J31" s="55"/>
       <c r="K31" s="55"/>
@@ -5902,22 +5906,24 @@
       <c r="O31" s="51"/>
     </row>
     <row r="32" spans="1:15" ht="13.5">
-      <c r="A32" s="81"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
       <c r="E32" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>122</v>
-      </c>
       <c r="G32" s="52">
+        <v>45272</v>
+      </c>
+      <c r="H32" s="53">
         <v>45271</v>
       </c>
-      <c r="H32" s="53"/>
       <c r="I32" s="54" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="J32" s="55"/>
       <c r="K32" s="55"/>
@@ -5927,22 +5933,30 @@
       <c r="O32" s="51"/>
     </row>
     <row r="33" spans="1:15" ht="13.5">
-      <c r="A33" s="81"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>85</v>
+      </c>
       <c r="E33" s="50" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="G33" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H33" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H33" s="53">
+        <v>45272</v>
+      </c>
       <c r="I33" s="54" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="J33" s="55"/>
       <c r="K33" s="55"/>
@@ -5952,22 +5966,24 @@
       <c r="O33" s="51"/>
     </row>
     <row r="34" spans="1:15" ht="13.5">
-      <c r="A34" s="81"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
       <c r="E34" s="50" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="G34" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H34" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H34" s="53">
+        <v>45272</v>
+      </c>
       <c r="I34" s="54" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -5977,22 +5993,24 @@
       <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:15" ht="13.5">
-      <c r="A35" s="81"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
       <c r="E35" s="50" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="G35" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H35" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H35" s="53">
+        <v>45272</v>
+      </c>
       <c r="I35" s="54" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
@@ -6002,22 +6020,24 @@
       <c r="O35" s="51"/>
     </row>
     <row r="36" spans="1:15" ht="13.5">
-      <c r="A36" s="81"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
       <c r="E36" s="50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="G36" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H36" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H36" s="53">
+        <v>45272</v>
+      </c>
       <c r="I36" s="54" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="J36" s="55"/>
       <c r="K36" s="55"/>
@@ -6027,22 +6047,24 @@
       <c r="O36" s="51"/>
     </row>
     <row r="37" spans="1:15" ht="13.5">
-      <c r="A37" s="81"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
       <c r="E37" s="50" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="G37" s="52">
         <v>45271</v>
       </c>
-      <c r="H37" s="53"/>
+      <c r="H37" s="53">
+        <v>45271</v>
+      </c>
       <c r="I37" s="54" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
@@ -6052,22 +6074,24 @@
       <c r="O37" s="51"/>
     </row>
     <row r="38" spans="1:15" ht="13.5">
-      <c r="A38" s="81"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="49"/>
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
       <c r="E38" s="50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="G38" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H38" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H38" s="53">
+        <v>45272</v>
+      </c>
       <c r="I38" s="54" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
@@ -6077,22 +6101,28 @@
       <c r="O38" s="51"/>
     </row>
     <row r="39" spans="1:15" ht="13.5">
-      <c r="A39" s="81"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E39" s="50" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G39" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H39" s="53"/>
       <c r="I39" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J39" s="55"/>
       <c r="K39" s="55"/>
@@ -6102,22 +6132,22 @@
       <c r="O39" s="51"/>
     </row>
     <row r="40" spans="1:15" ht="13.5">
-      <c r="A40" s="81"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
       <c r="D40" s="49"/>
       <c r="E40" s="50" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G40" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H40" s="53"/>
       <c r="I40" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
@@ -6127,22 +6157,22 @@
       <c r="O40" s="51"/>
     </row>
     <row r="41" spans="1:15" ht="13.5">
-      <c r="A41" s="81"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
       <c r="D41" s="49"/>
       <c r="E41" s="50" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G41" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H41" s="53"/>
       <c r="I41" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J41" s="55"/>
       <c r="K41" s="55"/>
@@ -6152,22 +6182,22 @@
       <c r="O41" s="51"/>
     </row>
     <row r="42" spans="1:15" ht="13.5">
-      <c r="A42" s="81"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
       <c r="D42" s="49"/>
       <c r="E42" s="50" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G42" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H42" s="53"/>
       <c r="I42" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
@@ -6177,22 +6207,22 @@
       <c r="O42" s="51"/>
     </row>
     <row r="43" spans="1:15" ht="13.5">
-      <c r="A43" s="81"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="49"/>
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="50" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G43" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H43" s="53"/>
       <c r="I43" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J43" s="55"/>
       <c r="K43" s="55"/>
@@ -6202,22 +6232,22 @@
       <c r="O43" s="51"/>
     </row>
     <row r="44" spans="1:15" ht="13.5">
-      <c r="A44" s="81"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="49"/>
       <c r="C44" s="49"/>
       <c r="D44" s="49"/>
       <c r="E44" s="50" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G44" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H44" s="53"/>
       <c r="I44" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
@@ -6227,22 +6257,22 @@
       <c r="O44" s="51"/>
     </row>
     <row r="45" spans="1:15" ht="13.5">
-      <c r="A45" s="81"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
       <c r="E45" s="50" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="G45" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H45" s="53"/>
       <c r="I45" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J45" s="55"/>
       <c r="K45" s="55"/>
@@ -6252,22 +6282,22 @@
       <c r="O45" s="51"/>
     </row>
     <row r="46" spans="1:15" ht="13.5">
-      <c r="A46" s="81"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
       <c r="D46" s="49"/>
       <c r="E46" s="50" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="G46" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H46" s="53"/>
       <c r="I46" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
@@ -6277,22 +6307,22 @@
       <c r="O46" s="51"/>
     </row>
     <row r="47" spans="1:15" ht="13.5">
-      <c r="A47" s="81"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
       <c r="E47" s="50" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="G47" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H47" s="53"/>
       <c r="I47" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
@@ -6302,22 +6332,22 @@
       <c r="O47" s="51"/>
     </row>
     <row r="48" spans="1:15" ht="13.5">
-      <c r="A48" s="81"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="49"/>
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
       <c r="E48" s="50" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="G48" s="52">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="H48" s="53"/>
       <c r="I48" s="54" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
@@ -6327,22 +6357,30 @@
       <c r="O48" s="51"/>
     </row>
     <row r="49" spans="1:15" ht="13.5">
-      <c r="A49" s="81"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>86</v>
+      </c>
       <c r="E49" s="50" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G49" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H49" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H49" s="53">
+        <v>45274</v>
+      </c>
       <c r="I49" s="54" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
@@ -6352,22 +6390,24 @@
       <c r="O49" s="51"/>
     </row>
     <row r="50" spans="1:15" ht="13.5">
-      <c r="A50" s="81"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="49"/>
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
       <c r="E50" s="50" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G50" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H50" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H50" s="53">
+        <v>45274</v>
+      </c>
       <c r="I50" s="54" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="J50" s="55"/>
       <c r="K50" s="55"/>
@@ -6377,22 +6417,24 @@
       <c r="O50" s="51"/>
     </row>
     <row r="51" spans="1:15" ht="13.5">
-      <c r="A51" s="81"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="49"/>
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
       <c r="E51" s="50" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G51" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H51" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H51" s="53">
+        <v>45274</v>
+      </c>
       <c r="I51" s="54" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
@@ -6402,22 +6444,24 @@
       <c r="O51" s="51"/>
     </row>
     <row r="52" spans="1:15" ht="13.5">
-      <c r="A52" s="81"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
       <c r="D52" s="49"/>
       <c r="E52" s="50" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G52" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H52" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H52" s="53">
+        <v>45274</v>
+      </c>
       <c r="I52" s="54" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="J52" s="55"/>
       <c r="K52" s="55"/>
@@ -6427,22 +6471,30 @@
       <c r="O52" s="51"/>
     </row>
     <row r="53" spans="1:15" ht="13.5">
-      <c r="A53" s="81"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E53" s="50" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G53" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H53" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H53" s="53">
+        <v>45272</v>
+      </c>
       <c r="I53" s="54" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J53" s="55"/>
       <c r="K53" s="55"/>
@@ -6452,22 +6504,24 @@
       <c r="O53" s="51"/>
     </row>
     <row r="54" spans="1:15" ht="13.5">
-      <c r="A54" s="81"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="49"/>
       <c r="C54" s="49"/>
       <c r="D54" s="49"/>
       <c r="E54" s="50" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="G54" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H54" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H54" s="53">
+        <v>45272</v>
+      </c>
       <c r="I54" s="54" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J54" s="55"/>
       <c r="K54" s="55"/>
@@ -6477,22 +6531,30 @@
       <c r="O54" s="51"/>
     </row>
     <row r="55" spans="1:15" ht="13.5">
-      <c r="A55" s="81"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E55" s="50" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G55" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H55" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H55" s="53">
+        <v>45272</v>
+      </c>
       <c r="I55" s="54" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J55" s="55"/>
       <c r="K55" s="55"/>
@@ -6502,22 +6564,24 @@
       <c r="O55" s="51"/>
     </row>
     <row r="56" spans="1:15" ht="13.5">
-      <c r="A56" s="81"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
       <c r="D56" s="49"/>
       <c r="E56" s="50" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="G56" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H56" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H56" s="53">
+        <v>45272</v>
+      </c>
       <c r="I56" s="54" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="J56" s="55"/>
       <c r="K56" s="55"/>
@@ -6527,22 +6591,30 @@
       <c r="O56" s="51"/>
     </row>
     <row r="57" spans="1:15" ht="13.5">
-      <c r="A57" s="81"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E57" s="50" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G57" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H57" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H57" s="53">
+        <v>45272</v>
+      </c>
       <c r="I57" s="54" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="J57" s="55"/>
       <c r="K57" s="55"/>
@@ -6552,22 +6624,24 @@
       <c r="O57" s="51"/>
     </row>
     <row r="58" spans="1:15" ht="13.5">
-      <c r="A58" s="81"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
       <c r="D58" s="49"/>
       <c r="E58" s="50" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G58" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H58" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H58" s="53">
+        <v>45274</v>
+      </c>
       <c r="I58" s="54" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="J58" s="55"/>
       <c r="K58" s="55"/>
@@ -6577,22 +6651,30 @@
       <c r="O58" s="51"/>
     </row>
     <row r="59" spans="1:15" ht="13.5">
-      <c r="A59" s="81"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E59" s="50" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F59" s="51" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="G59" s="52">
         <v>45271</v>
       </c>
-      <c r="H59" s="53"/>
+      <c r="H59" s="53">
+        <v>45271</v>
+      </c>
       <c r="I59" s="54" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="J59" s="55"/>
       <c r="K59" s="55"/>
@@ -6602,22 +6684,24 @@
       <c r="O59" s="51"/>
     </row>
     <row r="60" spans="1:15" ht="13.5">
-      <c r="A60" s="81"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
       <c r="D60" s="49"/>
       <c r="E60" s="50" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="G60" s="52">
         <v>45271</v>
       </c>
-      <c r="H60" s="53"/>
+      <c r="H60" s="53">
+        <v>45271</v>
+      </c>
       <c r="I60" s="54" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="J60" s="55"/>
       <c r="K60" s="55"/>
@@ -6627,22 +6711,24 @@
       <c r="O60" s="51"/>
     </row>
     <row r="61" spans="1:15" ht="13.5">
-      <c r="A61" s="81"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
       <c r="E61" s="50" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G61" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H61" s="53"/>
+        <v>45273</v>
+      </c>
+      <c r="H61" s="53">
+        <v>45274</v>
+      </c>
       <c r="I61" s="54" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="J61" s="55"/>
       <c r="K61" s="55"/>
@@ -6652,22 +6738,24 @@
       <c r="O61" s="51"/>
     </row>
     <row r="62" spans="1:15" ht="13.5">
-      <c r="A62" s="81"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
       <c r="D62" s="49"/>
       <c r="E62" s="50" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G62" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H62" s="53"/>
+        <v>45273</v>
+      </c>
+      <c r="H62" s="53">
+        <v>45273</v>
+      </c>
       <c r="I62" s="54" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="J62" s="55"/>
       <c r="K62" s="55"/>
@@ -6677,22 +6765,24 @@
       <c r="O62" s="51"/>
     </row>
     <row r="63" spans="1:15" ht="13.5">
-      <c r="A63" s="81"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="49"/>
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="G63" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H63" s="53"/>
+        <v>45273</v>
+      </c>
+      <c r="H63" s="53">
+        <v>45273</v>
+      </c>
       <c r="I63" s="54" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="J63" s="55"/>
       <c r="K63" s="55"/>
@@ -6702,22 +6792,24 @@
       <c r="O63" s="51"/>
     </row>
     <row r="64" spans="1:15" ht="13.5">
-      <c r="A64" s="81"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="49"/>
       <c r="C64" s="49"/>
       <c r="D64" s="49"/>
       <c r="E64" s="50" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G64" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H64" s="53"/>
+        <v>45273</v>
+      </c>
+      <c r="H64" s="53">
+        <v>45273</v>
+      </c>
       <c r="I64" s="54" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="J64" s="55"/>
       <c r="K64" s="55"/>
@@ -6727,22 +6819,24 @@
       <c r="O64" s="51"/>
     </row>
     <row r="65" spans="1:15" ht="13.5">
-      <c r="A65" s="81"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
       <c r="E65" s="50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G65" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H65" s="53"/>
+        <v>45273</v>
+      </c>
+      <c r="H65" s="53">
+        <v>45273</v>
+      </c>
       <c r="I65" s="54" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="J65" s="55"/>
       <c r="K65" s="55"/>
@@ -6752,22 +6846,24 @@
       <c r="O65" s="51"/>
     </row>
     <row r="66" spans="1:15" ht="13.5">
-      <c r="A66" s="81"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="49"/>
       <c r="C66" s="49"/>
       <c r="D66" s="49"/>
       <c r="E66" s="50" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="G66" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H66" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H66" s="53">
+        <v>45274</v>
+      </c>
       <c r="I66" s="54" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="J66" s="55"/>
       <c r="K66" s="55"/>
@@ -6777,22 +6873,24 @@
       <c r="O66" s="51"/>
     </row>
     <row r="67" spans="1:15" ht="13.5">
-      <c r="A67" s="81"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="49"/>
       <c r="C67" s="49"/>
       <c r="D67" s="49"/>
       <c r="E67" s="50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G67" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H67" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H67" s="53">
+        <v>45274</v>
+      </c>
       <c r="I67" s="54" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="J67" s="55"/>
       <c r="K67" s="55"/>
@@ -6802,1016 +6900,21 @@
       <c r="O67" s="51"/>
     </row>
     <row r="68" spans="1:15" ht="13.5">
-      <c r="A68" s="81"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="49"/>
       <c r="C68" s="49"/>
       <c r="D68" s="49"/>
-      <c r="E68" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="F68" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G68" s="52">
-        <v>45271</v>
-      </c>
+      <c r="E68" s="50"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="52"/>
       <c r="H68" s="53"/>
-      <c r="I68" s="54" t="s">
-        <v>171</v>
-      </c>
+      <c r="I68" s="54"/>
       <c r="J68" s="55"/>
       <c r="K68" s="55"/>
       <c r="L68" s="56"/>
       <c r="M68" s="55"/>
       <c r="N68" s="55"/>
       <c r="O68" s="51"/>
-    </row>
-    <row r="69" spans="1:15" ht="13.5">
-      <c r="A69" s="81"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F69" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G69" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="51"/>
-    </row>
-    <row r="70" spans="1:15" ht="13.5">
-      <c r="A70" s="81"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H70" s="53"/>
-      <c r="I70" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="51"/>
-    </row>
-    <row r="71" spans="1:15" ht="13.5">
-      <c r="A71" s="81"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G71" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H71" s="53"/>
-      <c r="I71" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="51"/>
-    </row>
-    <row r="72" spans="1:15" ht="13.5">
-      <c r="A72" s="81"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G72" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H72" s="53"/>
-      <c r="I72" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="51"/>
-    </row>
-    <row r="73" spans="1:15" ht="13.5">
-      <c r="A73" s="81"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F73" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G73" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H73" s="53"/>
-      <c r="I73" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="51"/>
-    </row>
-    <row r="74" spans="1:15" ht="13.5">
-      <c r="A74" s="81"/>
-      <c r="B74" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H74" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I74" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="51"/>
-    </row>
-    <row r="75" spans="1:15" ht="13.5">
-      <c r="A75" s="81"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H75" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I75" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="51"/>
-    </row>
-    <row r="76" spans="1:15" ht="13.5">
-      <c r="A76" s="81"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G76" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H76" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I76" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="51"/>
-    </row>
-    <row r="77" spans="1:15" ht="13.5">
-      <c r="A77" s="81"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F77" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G77" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H77" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I77" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="51"/>
-    </row>
-    <row r="78" spans="1:15" ht="13.5">
-      <c r="A78" s="81"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="F78" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G78" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H78" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I78" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="51"/>
-    </row>
-    <row r="79" spans="1:15" ht="13.5">
-      <c r="A79" s="81"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="F79" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G79" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H79" s="53">
-        <v>45271</v>
-      </c>
-      <c r="I79" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="51"/>
-    </row>
-    <row r="80" spans="1:15" ht="13.5">
-      <c r="A80" s="81"/>
-      <c r="B80" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="F80" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="G80" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H80" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I80" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="51"/>
-    </row>
-    <row r="81" spans="1:15" ht="13.5">
-      <c r="A81" s="81"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F81" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="G81" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H81" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I81" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="51"/>
-    </row>
-    <row r="82" spans="1:15" ht="13.5">
-      <c r="A82" s="81"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="F82" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G82" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H82" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I82" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="51"/>
-    </row>
-    <row r="83" spans="1:15" ht="13.5">
-      <c r="A83" s="81"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F83" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G83" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H83" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I83" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="51"/>
-    </row>
-    <row r="84" spans="1:15" ht="13.5">
-      <c r="A84" s="81"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F84" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G84" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H84" s="53">
-        <v>45271</v>
-      </c>
-      <c r="I84" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="51"/>
-    </row>
-    <row r="85" spans="1:15" ht="13.5">
-      <c r="A85" s="81"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F85" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="G85" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H85" s="53">
-        <v>45272</v>
-      </c>
-      <c r="I85" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="51"/>
-    </row>
-    <row r="86" spans="1:15" ht="14.25">
-      <c r="A86" s="81"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="82"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="51"/>
-    </row>
-    <row r="87" spans="1:15" ht="13.5">
-      <c r="A87" s="81"/>
-      <c r="B87" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="51"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="54"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="51"/>
-    </row>
-    <row r="88" spans="1:15" ht="13.5">
-      <c r="A88" s="81"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="51"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="51"/>
-    </row>
-    <row r="89" spans="1:15" ht="13.5">
-      <c r="A89" s="81"/>
-      <c r="B89" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="51"/>
-    </row>
-    <row r="90" spans="1:15" ht="13.5">
-      <c r="A90" s="81"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="53"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="55"/>
-      <c r="O90" s="51"/>
-    </row>
-    <row r="91" spans="1:15" ht="13.5">
-      <c r="A91" s="81"/>
-      <c r="B91" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E91" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F91" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G91" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H91" s="53"/>
-      <c r="I91" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="51"/>
-    </row>
-    <row r="92" spans="1:15" ht="13.5">
-      <c r="A92" s="81"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="F92" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G92" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H92" s="53"/>
-      <c r="I92" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="51"/>
-    </row>
-    <row r="93" spans="1:15" ht="13.5">
-      <c r="A93" s="81"/>
-      <c r="B93" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D93" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G93" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H93" s="53"/>
-      <c r="I93" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="J93" s="55"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="55"/>
-      <c r="O93" s="51"/>
-    </row>
-    <row r="94" spans="1:15" ht="13.5">
-      <c r="A94" s="81"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F94" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G94" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H94" s="53"/>
-      <c r="I94" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="J94" s="55"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="55"/>
-      <c r="N94" s="55"/>
-      <c r="O94" s="51"/>
-    </row>
-    <row r="95" spans="1:15" ht="13.5">
-      <c r="A95" s="81"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="F95" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G95" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H95" s="53"/>
-      <c r="I95" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="J95" s="55"/>
-      <c r="K95" s="55"/>
-      <c r="L95" s="56"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="55"/>
-      <c r="O95" s="51"/>
-    </row>
-    <row r="96" spans="1:15" ht="13.5">
-      <c r="A96" s="81"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H96" s="53"/>
-      <c r="I96" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="J96" s="55"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="55"/>
-      <c r="O96" s="51"/>
-    </row>
-    <row r="97" spans="1:15" ht="13.5">
-      <c r="A97" s="81"/>
-      <c r="B97" s="49"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F97" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G97" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H97" s="53"/>
-      <c r="I97" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="J97" s="55"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="56"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="51"/>
-    </row>
-    <row r="98" spans="1:15" ht="13.5">
-      <c r="A98" s="81"/>
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F98" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G98" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H98" s="53"/>
-      <c r="I98" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="J98" s="55"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="56"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="51"/>
-    </row>
-    <row r="99" spans="1:15" ht="13.5">
-      <c r="A99" s="81"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="F99" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H99" s="53"/>
-      <c r="I99" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="J99" s="55"/>
-      <c r="K99" s="55"/>
-      <c r="L99" s="56"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="51"/>
-    </row>
-    <row r="100" spans="1:15" ht="13.5">
-      <c r="A100" s="81"/>
-      <c r="B100" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E100" s="50"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="54"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="55"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="55"/>
-      <c r="O100" s="51"/>
-    </row>
-    <row r="101" spans="1:15" ht="13.5">
-      <c r="A101" s="81"/>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="54"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="55"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="51"/>
-    </row>
-    <row r="102" spans="1:15" ht="13.5">
-      <c r="A102" s="81"/>
-      <c r="B102" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="E102" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G102" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H102" s="53">
-        <v>45271</v>
-      </c>
-      <c r="I102" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="J102" s="55"/>
-      <c r="K102" s="55"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="55"/>
-      <c r="O102" s="51"/>
-    </row>
-    <row r="103" spans="1:15" ht="13.5">
-      <c r="A103" s="81"/>
-      <c r="B103" s="49"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F103" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="G103" s="52">
-        <v>45271</v>
-      </c>
-      <c r="H103" s="53">
-        <v>45271</v>
-      </c>
-      <c r="I103" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="J103" s="55"/>
-      <c r="K103" s="55"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="55"/>
-      <c r="N103" s="55"/>
-      <c r="O103" s="51"/>
-    </row>
-    <row r="104" spans="1:15" ht="13.5">
-      <c r="A104" s="81"/>
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F104" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G104" s="52"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="J104" s="55"/>
-      <c r="K104" s="55"/>
-      <c r="L104" s="56"/>
-      <c r="M104" s="55"/>
-      <c r="N104" s="55"/>
-      <c r="O104" s="51"/>
-    </row>
-    <row r="105" spans="1:15" ht="13.5">
-      <c r="A105" s="81"/>
-      <c r="B105" s="49"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="F105" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G105" s="52"/>
-      <c r="H105" s="53"/>
-      <c r="I105" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="J105" s="55"/>
-      <c r="K105" s="55"/>
-      <c r="L105" s="56"/>
-      <c r="M105" s="55"/>
-      <c r="N105" s="55"/>
-      <c r="O105" s="51"/>
-    </row>
-    <row r="106" spans="1:15" ht="13.5">
-      <c r="A106" s="81"/>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F106" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G106" s="52"/>
-      <c r="H106" s="53"/>
-      <c r="I106" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="J106" s="55"/>
-      <c r="K106" s="55"/>
-      <c r="L106" s="56"/>
-      <c r="M106" s="55"/>
-      <c r="N106" s="55"/>
-      <c r="O106" s="51"/>
-    </row>
-    <row r="107" spans="1:15" ht="13.5">
-      <c r="A107" s="81"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
-      <c r="E107" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="F107" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G107" s="52"/>
-      <c r="H107" s="53"/>
-      <c r="I107" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="J107" s="55"/>
-      <c r="K107" s="55"/>
-      <c r="L107" s="56"/>
-      <c r="M107" s="55"/>
-      <c r="N107" s="55"/>
-      <c r="O107" s="51"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:O6"/>
@@ -7827,9 +6930,9 @@
     <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D5:E5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D108:F65190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D69:F65151">
       <formula1>Type</formula1>
     </dataValidation>
   </dataValidations>

--- a/_documents/프로그램 목록(KPC-SCC-D01).xlsx
+++ b/_documents/프로그램 목록(KPC-SCC-D01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,6 @@
     <definedName name="테스트단계1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -642,31 +641,31 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>SCCUP200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP110000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP130000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP120000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP140000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PGM-SCC-P01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP110000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP500000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP130000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP120000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCCUP140000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1423,6 +1422,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1431,15 +1439,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4651,11 +4650,11 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="69" t="str">
+      <c r="K2" s="66" t="str">
         <f>표지!B11</f>
         <v>프로그램 목록</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="31.5">
@@ -4675,19 +4674,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
@@ -4713,17 +4712,17 @@
       <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4740,17 +4739,17 @@
       <c r="C7" s="16">
         <v>45274</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="66" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="67"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="15" t="s">
         <v>9</v>
       </c>
@@ -4763,13 +4762,13 @@
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="10"/>
@@ -4778,13 +4777,13 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="10"/>
@@ -4793,13 +4792,13 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="10"/>
@@ -4808,13 +4807,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10"/>
@@ -4823,13 +4822,13 @@
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
@@ -4838,13 +4837,13 @@
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
@@ -4853,13 +4852,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="67"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
@@ -4868,13 +4867,13 @@
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="67"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
@@ -4883,13 +4882,13 @@
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="67"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
@@ -4898,13 +4897,13 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="67"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="10"/>
@@ -4913,13 +4912,13 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="10"/>
@@ -4928,13 +4927,13 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="67"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="10"/>
@@ -4943,13 +4942,13 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="10"/>
@@ -4958,13 +4957,13 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="67"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="10"/>
@@ -4973,13 +4972,13 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="67"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="70"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="10"/>
@@ -4988,13 +4987,13 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="67"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="10"/>
@@ -5003,13 +5002,13 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="67"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="70"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="10"/>
@@ -5091,36 +5090,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -5131,6 +5100,36 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5145,10 +5144,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:O68"/>
+  <dimension ref="A4:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12"/>
@@ -5244,7 +5243,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5">
       <c r="A7" s="59" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>26</v>
@@ -5629,7 +5628,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>57</v>
@@ -5770,7 +5769,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D27" s="49" t="s">
         <v>56</v>
@@ -5938,7 +5937,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33" s="49" t="s">
         <v>85</v>
@@ -6106,7 +6105,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>56</v>
@@ -6362,7 +6361,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="49" t="s">
         <v>86</v>
@@ -6596,7 +6595,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="49" t="s">
         <v>56</v>
@@ -6916,6 +6915,91 @@
       <c r="N68" s="55"/>
       <c r="O68" s="51"/>
     </row>
+    <row r="69" spans="1:15" ht="13.5">
+      <c r="A69" s="59"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="51"/>
+    </row>
+    <row r="70" spans="1:15" ht="13.5">
+      <c r="A70" s="59"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="55"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="51"/>
+    </row>
+    <row r="71" spans="1:15" ht="13.5">
+      <c r="A71" s="59"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="53"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="51"/>
+    </row>
+    <row r="72" spans="1:15" ht="13.5">
+      <c r="A72" s="59"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="51"/>
+    </row>
+    <row r="73" spans="1:15" ht="13.5">
+      <c r="A73" s="59"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="51"/>
+    </row>
   </sheetData>
   <autoFilter ref="A6:O6"/>
   <mergeCells count="9">
@@ -6932,7 +7016,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D5:E5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D69:F65151">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D74:F65156">
       <formula1>Type</formula1>
     </dataValidation>
   </dataValidations>

--- a/_documents/프로그램 목록(KPC-SCC-D01).xlsx
+++ b/_documents/프로그램 목록(KPC-SCC-D01).xlsx
@@ -1422,6 +1422,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1430,15 +1439,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4650,11 +4650,11 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="66" t="str">
+      <c r="K2" s="69" t="str">
         <f>표지!B11</f>
         <v>프로그램 목록</v>
       </c>
-      <c r="L2" s="66"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="31.5">
@@ -4674,19 +4674,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
@@ -4712,17 +4712,17 @@
       <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4739,17 +4739,17 @@
       <c r="C7" s="16">
         <v>45274</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="69" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="70"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="15" t="s">
         <v>9</v>
       </c>
@@ -4762,13 +4762,13 @@
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="70"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="10"/>
@@ -4777,13 +4777,13 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="70"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="10"/>
@@ -4792,13 +4792,13 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="70"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="10"/>
@@ -4807,13 +4807,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="70"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10"/>
@@ -4822,13 +4822,13 @@
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="70"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
@@ -4837,13 +4837,13 @@
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="70"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
@@ -4852,13 +4852,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="70"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
@@ -4867,13 +4867,13 @@
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="70"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
@@ -4882,13 +4882,13 @@
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="70"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
@@ -4897,13 +4897,13 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="70"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="10"/>
@@ -4912,13 +4912,13 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="70"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="10"/>
@@ -4927,13 +4927,13 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="70"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="10"/>
@@ -4942,13 +4942,13 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="70"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="10"/>
@@ -4957,13 +4957,13 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="70"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="67"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="10"/>
@@ -4972,13 +4972,13 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="70"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="10"/>
@@ -4987,13 +4987,13 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="70"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="10"/>
@@ -5002,13 +5002,13 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="70"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="67"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="10"/>
@@ -5090,6 +5090,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -5100,36 +5130,6 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5146,8 +5146,8 @@
   </sheetPr>
   <dimension ref="A4:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12"/>

--- a/_documents/프로그램 목록(KPC-SCC-D01).xlsx
+++ b/_documents/프로그램 목록(KPC-SCC-D01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\silver-car-community\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="164">
   <si>
     <t>최초 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,41 +599,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FreePosting.js</t>
-  </si>
-  <si>
-    <t>reportWebVitals.js</t>
-  </si>
-  <si>
-    <t>AttachementRepository.java</t>
-  </si>
-  <si>
-    <t>CommentRepository.java</t>
-  </si>
-  <si>
-    <t>PostingRepository.java</t>
-  </si>
-  <si>
-    <t>ReviewRepository.java</t>
-  </si>
-  <si>
-    <t>Attachement.java</t>
-  </si>
-  <si>
-    <t>Comment.java</t>
-  </si>
-  <si>
     <t>Posting.java</t>
   </si>
   <si>
-    <t>Review.java</t>
-  </si>
-  <si>
     <t>이승찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repository</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,6 +635,82 @@
   </si>
   <si>
     <t>PGM-SCC-P01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostingRepository.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentRepository.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadPosting.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WritePosting.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletinBoard.css</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostingPage.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletinBoard.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WritePosting.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportWebVitals.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReWritePosting.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadPosting.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReRegister.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승찬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1219,7 +1264,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,6 +1514,59 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4640,7 +4738,7 @@
     <row r="2" spans="1:13" ht="21" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="24" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="12"/>
@@ -5144,10 +5242,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:O73"/>
+  <dimension ref="A4:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12"/>
@@ -5243,7 +5341,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5">
       <c r="A7" s="59" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>26</v>
@@ -5257,7 +5355,9 @@
       <c r="E7" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="51" t="s">
+        <v>146</v>
+      </c>
       <c r="G7" s="52"/>
       <c r="H7" s="53"/>
       <c r="I7" s="54"/>
@@ -5276,7 +5376,9 @@
       <c r="E8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="51" t="s">
+        <v>146</v>
+      </c>
       <c r="G8" s="52"/>
       <c r="H8" s="53"/>
       <c r="I8" s="54"/>
@@ -5295,7 +5397,9 @@
       <c r="E9" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="51" t="s">
+        <v>146</v>
+      </c>
       <c r="G9" s="52"/>
       <c r="H9" s="53"/>
       <c r="I9" s="54"/>
@@ -5312,9 +5416,11 @@
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="51"/>
+        <v>158</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>146</v>
+      </c>
       <c r="G10" s="52"/>
       <c r="H10" s="53"/>
       <c r="I10" s="54"/>
@@ -5331,14 +5437,20 @@
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+        <v>145</v>
+      </c>
+      <c r="G11" s="52">
+        <v>45272</v>
+      </c>
+      <c r="H11" s="53">
+        <v>45272</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>99</v>
+      </c>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
       <c r="L11" s="56"/>
@@ -5352,10 +5464,10 @@
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="50" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="52">
         <v>45272</v>
@@ -5379,10 +5491,10 @@
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G13" s="52">
         <v>45272</v>
@@ -5406,10 +5518,10 @@
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="50" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G14" s="52">
         <v>45272</v>
@@ -5433,10 +5545,10 @@
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G15" s="52">
         <v>45272</v>
@@ -5460,10 +5572,10 @@
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G16" s="52">
         <v>45272</v>
@@ -5487,10 +5599,10 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="50" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G17" s="52">
         <v>45272</v>
@@ -5514,19 +5626,19 @@
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="50" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G18" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H18" s="53">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
@@ -5541,7 +5653,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="51" t="s">
         <v>131</v>
@@ -5553,7 +5665,7 @@
         <v>45271</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J19" s="55"/>
       <c r="K19" s="55"/>
@@ -5564,29 +5676,23 @@
     </row>
     <row r="20" spans="1:15" ht="13.5">
       <c r="A20" s="59"/>
-      <c r="B20" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="50" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="G20" s="52">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="H20" s="53">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
@@ -5597,14 +5703,20 @@
     </row>
     <row r="21" spans="1:15" ht="13.5">
       <c r="A21" s="59"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="B21" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E21" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="52">
         <v>45272</v>
@@ -5624,20 +5736,14 @@
     </row>
     <row r="22" spans="1:15" ht="13.5">
       <c r="A22" s="59"/>
-      <c r="B22" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>57</v>
-      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="50" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G22" s="52">
         <v>45272</v>
@@ -5646,7 +5752,7 @@
         <v>45272</v>
       </c>
       <c r="I22" s="54" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
@@ -5657,14 +5763,20 @@
     </row>
     <row r="23" spans="1:15" ht="13.5">
       <c r="A23" s="59"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="B23" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23" s="52">
         <v>45272</v>
@@ -5688,10 +5800,10 @@
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
       <c r="E24" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" s="52">
         <v>45272</v>
@@ -5700,7 +5812,7 @@
         <v>45272</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J24" s="55"/>
       <c r="K24" s="55"/>
@@ -5715,19 +5827,19 @@
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G25" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H25" s="53">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
@@ -5742,19 +5854,19 @@
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
       <c r="E26" s="50" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G26" s="52">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="H26" s="53">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J26" s="55"/>
       <c r="K26" s="55"/>
@@ -5765,20 +5877,14 @@
     </row>
     <row r="27" spans="1:15" ht="13.5">
       <c r="A27" s="59"/>
-      <c r="B27" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="50" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G27" s="52">
         <v>45272</v>
@@ -5787,7 +5893,7 @@
         <v>45272</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
@@ -5798,11 +5904,17 @@
     </row>
     <row r="28" spans="1:15" ht="13.5">
       <c r="A28" s="59"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E28" s="50" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>65</v>
@@ -5814,7 +5926,7 @@
         <v>45272</v>
       </c>
       <c r="I28" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J28" s="55"/>
       <c r="K28" s="55"/>
@@ -5829,10 +5941,10 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="50" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G29" s="52">
         <v>45272</v>
@@ -5841,7 +5953,7 @@
         <v>45272</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
@@ -5856,10 +5968,10 @@
       <c r="C30" s="49"/>
       <c r="D30" s="49"/>
       <c r="E30" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G30" s="52">
         <v>45272</v>
@@ -5883,10 +5995,10 @@
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G31" s="52">
         <v>45272</v>
@@ -5910,19 +6022,19 @@
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
       <c r="E32" s="50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G32" s="52">
         <v>45272</v>
       </c>
       <c r="H32" s="53">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J32" s="55"/>
       <c r="K32" s="55"/>
@@ -5933,29 +6045,23 @@
     </row>
     <row r="33" spans="1:15" ht="13.5">
       <c r="A33" s="59"/>
-      <c r="B33" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>85</v>
-      </c>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G33" s="52">
         <v>45272</v>
       </c>
       <c r="H33" s="53">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J33" s="55"/>
       <c r="K33" s="55"/>
@@ -5966,11 +6072,17 @@
     </row>
     <row r="34" spans="1:15" ht="13.5">
       <c r="A34" s="59"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+      <c r="B34" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>85</v>
+      </c>
       <c r="E34" s="50" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F34" s="51" t="s">
         <v>76</v>
@@ -5982,7 +6094,7 @@
         <v>45272</v>
       </c>
       <c r="I34" s="54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -5997,10 +6109,10 @@
       <c r="C35" s="49"/>
       <c r="D35" s="49"/>
       <c r="E35" s="50" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G35" s="52">
         <v>45272</v>
@@ -6009,7 +6121,7 @@
         <v>45272</v>
       </c>
       <c r="I35" s="54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
@@ -6024,10 +6136,10 @@
       <c r="C36" s="49"/>
       <c r="D36" s="49"/>
       <c r="E36" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G36" s="52">
         <v>45272</v>
@@ -6051,19 +6163,19 @@
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
       <c r="E37" s="50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G37" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H37" s="53">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="I37" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
@@ -6078,19 +6190,19 @@
       <c r="C38" s="49"/>
       <c r="D38" s="49"/>
       <c r="E38" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G38" s="52">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="H38" s="53">
-        <v>45272</v>
+        <v>45271</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
@@ -6101,27 +6213,23 @@
     </row>
     <row r="39" spans="1:15" ht="13.5">
       <c r="A39" s="59"/>
-      <c r="B39" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
       <c r="E39" s="50" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G39" s="52">
-        <v>45273</v>
-      </c>
-      <c r="H39" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H39" s="53">
+        <v>45272</v>
+      </c>
       <c r="I39" s="54" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="J39" s="55"/>
       <c r="K39" s="55"/>
@@ -6132,21 +6240,29 @@
     </row>
     <row r="40" spans="1:15" ht="13.5">
       <c r="A40" s="59"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E40" s="50" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F40" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G40" s="52">
+        <v>45272</v>
+      </c>
+      <c r="H40" s="53">
         <v>45273</v>
       </c>
-      <c r="H40" s="53"/>
       <c r="I40" s="54" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
@@ -6161,17 +6277,19 @@
       <c r="C41" s="49"/>
       <c r="D41" s="49"/>
       <c r="E41" s="50" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G41" s="52">
-        <v>45273</v>
-      </c>
-      <c r="H41" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H41" s="53">
+        <v>45274</v>
+      </c>
       <c r="I41" s="54" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J41" s="55"/>
       <c r="K41" s="55"/>
@@ -6186,17 +6304,19 @@
       <c r="C42" s="49"/>
       <c r="D42" s="49"/>
       <c r="E42" s="50" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="52">
         <v>45273</v>
       </c>
-      <c r="H42" s="53"/>
+      <c r="H42" s="53">
+        <v>45274</v>
+      </c>
       <c r="I42" s="54" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
@@ -6211,17 +6331,19 @@
       <c r="C43" s="49"/>
       <c r="D43" s="49"/>
       <c r="E43" s="50" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G43" s="52">
-        <v>45273</v>
-      </c>
-      <c r="H43" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H43" s="53">
+        <v>45277</v>
+      </c>
       <c r="I43" s="54" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="J43" s="55"/>
       <c r="K43" s="55"/>
@@ -6236,17 +6358,19 @@
       <c r="C44" s="49"/>
       <c r="D44" s="49"/>
       <c r="E44" s="50" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="G44" s="52">
-        <v>45273</v>
-      </c>
-      <c r="H44" s="53"/>
+        <v>45276</v>
+      </c>
+      <c r="H44" s="53">
+        <v>45276</v>
+      </c>
       <c r="I44" s="54" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
@@ -6261,17 +6385,19 @@
       <c r="C45" s="49"/>
       <c r="D45" s="49"/>
       <c r="E45" s="50" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="G45" s="52">
-        <v>45273</v>
-      </c>
-      <c r="H45" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H45" s="53">
+        <v>45274</v>
+      </c>
       <c r="I45" s="54" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J45" s="55"/>
       <c r="K45" s="55"/>
@@ -6286,17 +6412,19 @@
       <c r="C46" s="49"/>
       <c r="D46" s="49"/>
       <c r="E46" s="50" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="G46" s="52">
         <v>45273</v>
       </c>
-      <c r="H46" s="53"/>
+      <c r="H46" s="53">
+        <v>45274</v>
+      </c>
       <c r="I46" s="54" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
@@ -6311,17 +6439,19 @@
       <c r="C47" s="49"/>
       <c r="D47" s="49"/>
       <c r="E47" s="50" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="G47" s="52">
-        <v>45273</v>
-      </c>
-      <c r="H47" s="53"/>
+        <v>45274</v>
+      </c>
+      <c r="H47" s="53">
+        <v>45277</v>
+      </c>
       <c r="I47" s="54" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
@@ -6336,17 +6466,19 @@
       <c r="C48" s="49"/>
       <c r="D48" s="49"/>
       <c r="E48" s="50" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F48" s="51" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G48" s="52">
-        <v>45273</v>
-      </c>
-      <c r="H48" s="53"/>
+        <v>45272</v>
+      </c>
+      <c r="H48" s="53">
+        <v>45274</v>
+      </c>
       <c r="I48" s="54" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
@@ -6357,29 +6489,23 @@
     </row>
     <row r="49" spans="1:15" ht="13.5">
       <c r="A49" s="59"/>
-      <c r="B49" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>86</v>
-      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="50" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G49" s="52">
         <v>45274</v>
       </c>
       <c r="H49" s="53">
-        <v>45274</v>
+        <v>45277</v>
       </c>
       <c r="I49" s="54" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
@@ -6394,19 +6520,19 @@
       <c r="C50" s="49"/>
       <c r="D50" s="49"/>
       <c r="E50" s="50" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="G50" s="52">
-        <v>45274</v>
-      </c>
-      <c r="H50" s="53">
-        <v>45274</v>
+        <v>45271</v>
+      </c>
+      <c r="H50" s="52">
+        <v>45271</v>
       </c>
       <c r="I50" s="54" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="J50" s="55"/>
       <c r="K50" s="55"/>
@@ -6421,19 +6547,19 @@
       <c r="C51" s="49"/>
       <c r="D51" s="49"/>
       <c r="E51" s="50" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="G51" s="52">
-        <v>45274</v>
-      </c>
-      <c r="H51" s="53">
-        <v>45274</v>
+        <v>45271</v>
+      </c>
+      <c r="H51" s="52">
+        <v>45271</v>
       </c>
       <c r="I51" s="54" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
@@ -6444,14 +6570,20 @@
     </row>
     <row r="52" spans="1:15" ht="13.5">
       <c r="A52" s="59"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+      <c r="B52" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>86</v>
+      </c>
       <c r="E52" s="50" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G52" s="52">
         <v>45274</v>
@@ -6460,7 +6592,7 @@
         <v>45274</v>
       </c>
       <c r="I52" s="54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J52" s="55"/>
       <c r="K52" s="55"/>
@@ -6471,29 +6603,23 @@
     </row>
     <row r="53" spans="1:15" ht="13.5">
       <c r="A53" s="59"/>
-      <c r="B53" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="50" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="G53" s="52">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="H53" s="53">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="I53" s="54" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="J53" s="55"/>
       <c r="K53" s="55"/>
@@ -6508,19 +6634,19 @@
       <c r="C54" s="49"/>
       <c r="D54" s="49"/>
       <c r="E54" s="50" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="G54" s="52">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="H54" s="53">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="I54" s="54" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="J54" s="55"/>
       <c r="K54" s="55"/>
@@ -6531,29 +6657,23 @@
     </row>
     <row r="55" spans="1:15" ht="13.5">
       <c r="A55" s="59"/>
-      <c r="B55" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
       <c r="E55" s="50" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="G55" s="52">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="H55" s="53">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="I55" s="54" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="J55" s="55"/>
       <c r="K55" s="55"/>
@@ -6564,14 +6684,20 @@
     </row>
     <row r="56" spans="1:15" ht="13.5">
       <c r="A56" s="59"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+      <c r="B56" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E56" s="50" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G56" s="52">
         <v>45272</v>
@@ -6591,20 +6717,14 @@
     </row>
     <row r="57" spans="1:15" ht="13.5">
       <c r="A57" s="59"/>
-      <c r="B57" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" s="50" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="G57" s="52">
         <v>45272</v>
@@ -6613,7 +6733,7 @@
         <v>45272</v>
       </c>
       <c r="I57" s="54" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J57" s="55"/>
       <c r="K57" s="55"/>
@@ -6624,23 +6744,29 @@
     </row>
     <row r="58" spans="1:15" ht="13.5">
       <c r="A58" s="59"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+      <c r="B58" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E58" s="50" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="G58" s="52">
         <v>45272</v>
       </c>
       <c r="H58" s="53">
-        <v>45274</v>
+        <v>45272</v>
       </c>
       <c r="I58" s="54" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="J58" s="55"/>
       <c r="K58" s="55"/>
@@ -6651,29 +6777,23 @@
     </row>
     <row r="59" spans="1:15" ht="13.5">
       <c r="A59" s="59"/>
-      <c r="B59" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>56</v>
-      </c>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" s="50" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="F59" s="51" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G59" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H59" s="53">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="I59" s="54" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J59" s="55"/>
       <c r="K59" s="55"/>
@@ -6684,23 +6804,29 @@
     </row>
     <row r="60" spans="1:15" ht="13.5">
       <c r="A60" s="59"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+      <c r="B60" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E60" s="50" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="G60" s="52">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="H60" s="53">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="I60" s="54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J60" s="55"/>
       <c r="K60" s="55"/>
@@ -6715,19 +6841,19 @@
       <c r="C61" s="49"/>
       <c r="D61" s="49"/>
       <c r="E61" s="50" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G61" s="52">
-        <v>45273</v>
+        <v>45272</v>
       </c>
       <c r="H61" s="53">
         <v>45274</v>
       </c>
       <c r="I61" s="54" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="J61" s="55"/>
       <c r="K61" s="55"/>
@@ -6738,23 +6864,29 @@
     </row>
     <row r="62" spans="1:15" ht="13.5">
       <c r="A62" s="59"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
+      <c r="B62" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="E62" s="50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G62" s="52">
-        <v>45273</v>
+        <v>45271</v>
       </c>
       <c r="H62" s="53">
-        <v>45273</v>
+        <v>45271</v>
       </c>
       <c r="I62" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J62" s="55"/>
       <c r="K62" s="55"/>
@@ -6769,19 +6901,19 @@
       <c r="C63" s="49"/>
       <c r="D63" s="49"/>
       <c r="E63" s="50" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G63" s="52">
-        <v>45273</v>
+        <v>45271</v>
       </c>
       <c r="H63" s="53">
-        <v>45273</v>
+        <v>45271</v>
       </c>
       <c r="I63" s="54" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J63" s="55"/>
       <c r="K63" s="55"/>
@@ -6796,19 +6928,19 @@
       <c r="C64" s="49"/>
       <c r="D64" s="49"/>
       <c r="E64" s="50" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="G64" s="52">
         <v>45273</v>
       </c>
       <c r="H64" s="53">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="I64" s="54" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J64" s="55"/>
       <c r="K64" s="55"/>
@@ -6823,10 +6955,10 @@
       <c r="C65" s="49"/>
       <c r="D65" s="49"/>
       <c r="E65" s="50" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G65" s="52">
         <v>45273</v>
@@ -6835,7 +6967,7 @@
         <v>45273</v>
       </c>
       <c r="I65" s="54" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="J65" s="55"/>
       <c r="K65" s="55"/>
@@ -6850,19 +6982,19 @@
       <c r="C66" s="49"/>
       <c r="D66" s="49"/>
       <c r="E66" s="50" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="52">
-        <v>45274</v>
+        <v>45273</v>
       </c>
       <c r="H66" s="53">
-        <v>45274</v>
+        <v>45273</v>
       </c>
       <c r="I66" s="54" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J66" s="55"/>
       <c r="K66" s="55"/>
@@ -6877,19 +7009,19 @@
       <c r="C67" s="49"/>
       <c r="D67" s="49"/>
       <c r="E67" s="50" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="G67" s="52">
-        <v>45274</v>
+        <v>45273</v>
       </c>
       <c r="H67" s="53">
-        <v>45274</v>
+        <v>45273</v>
       </c>
       <c r="I67" s="54" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J67" s="55"/>
       <c r="K67" s="55"/>
@@ -6903,11 +7035,21 @@
       <c r="B68" s="49"/>
       <c r="C68" s="49"/>
       <c r="D68" s="49"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="54"/>
+      <c r="E68" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F68" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="52">
+        <v>45273</v>
+      </c>
+      <c r="H68" s="53">
+        <v>45273</v>
+      </c>
+      <c r="I68" s="54" t="s">
+        <v>9</v>
+      </c>
       <c r="J68" s="55"/>
       <c r="K68" s="55"/>
       <c r="L68" s="56"/>
@@ -6920,11 +7062,21 @@
       <c r="B69" s="49"/>
       <c r="C69" s="49"/>
       <c r="D69" s="49"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54"/>
+      <c r="E69" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="52">
+        <v>45274</v>
+      </c>
+      <c r="H69" s="53">
+        <v>45274</v>
+      </c>
+      <c r="I69" s="54" t="s">
+        <v>113</v>
+      </c>
       <c r="J69" s="55"/>
       <c r="K69" s="55"/>
       <c r="L69" s="56"/>
@@ -6937,11 +7089,21 @@
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
       <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="54"/>
+      <c r="E70" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F70" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="52">
+        <v>45274</v>
+      </c>
+      <c r="H70" s="53">
+        <v>45274</v>
+      </c>
+      <c r="I70" s="54" t="s">
+        <v>114</v>
+      </c>
       <c r="J70" s="55"/>
       <c r="K70" s="55"/>
       <c r="L70" s="56"/>
@@ -6954,11 +7116,21 @@
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
       <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="54"/>
+      <c r="E71" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="52">
+        <v>45276</v>
+      </c>
+      <c r="H71" s="53">
+        <v>45276</v>
+      </c>
+      <c r="I71" s="54" t="s">
+        <v>163</v>
+      </c>
       <c r="J71" s="55"/>
       <c r="K71" s="55"/>
       <c r="L71" s="56"/>
@@ -6968,37 +7140,88 @@
     </row>
     <row r="72" spans="1:15" ht="13.5">
       <c r="A72" s="59"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="51"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="97"/>
+      <c r="N72" s="97"/>
+      <c r="O72" s="93"/>
     </row>
     <row r="73" spans="1:15" ht="13.5">
       <c r="A73" s="59"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="51"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="87"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="85"/>
+    </row>
+    <row r="74" spans="1:15" ht="13.5">
+      <c r="A74" s="59"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="89"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="85"/>
+    </row>
+    <row r="75" spans="1:15" ht="13.5">
+      <c r="A75" s="59"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="87"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="85"/>
+    </row>
+    <row r="76" spans="1:15" ht="13.5">
+      <c r="A76" s="59"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="90"/>
+      <c r="M76" s="89"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="85"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:O6"/>
@@ -7016,7 +7239,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D5:E5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D74:F65156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D77:F65159">
       <formula1>Type</formula1>
     </dataValidation>
   </dataValidations>
